--- a/TestFolders.xlsx
+++ b/TestFolders.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Rally2JIRA Data Migrations\B2B Migration\StoreOnline\InputData\TestFolders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syrek.w\Documents\UiPath\JIRA_Migration_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1EFD71-5BF2-4F46-A578-E5CFF55F89DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A678A-F716-4D5F-80C6-D313486E7712}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6FB312E2-F3C6-4A62-A4E0-6C7F7E2208AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10410" xr2:uid="{6FB312E2-F3C6-4A62-A4E0-6C7F7E2208AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2176,7 +2176,7 @@
   <dimension ref="A1:E364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
